--- a/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
+++ b/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de données/SFCC/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/Newsletter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3296DF3-C846-3B4C-894A-C719552F800D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42DEBBF-DCCC-374C-8E50-D075EB4BE8BC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="380" yWindow="3140" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -805,31 +805,31 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="B2:B7">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>

--- a/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
+++ b/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/Newsletter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42DEBBF-DCCC-374C-8E50-D075EB4BE8BC}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31A839D-22CB-7245-AC83-CC7E5AA96FB7}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="3140" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,38 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>*** Test Cases ***</t>
   </si>
   <si>
-    <t>UC1_UAT</t>
-  </si>
-  <si>
     <t>${Email}</t>
   </si>
   <si>
-    <t>UC2_UAT</t>
-  </si>
-  <si>
-    <t>UC3_UAT</t>
-  </si>
-  <si>
     <t>${playTest}</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>UC4_UAT</t>
-  </si>
-  <si>
-    <t>UC5_UAT</t>
-  </si>
-  <si>
-    <t>UC6_UAT</t>
-  </si>
-  <si>
     <t>${country}</t>
   </si>
   <si>
@@ -111,6 +93,27 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>UC1__SFCC_Newsletter_UAT</t>
+  </si>
+  <si>
+    <t>UC2_SFCC_Newsletter_UAT</t>
+  </si>
+  <si>
+    <t>UC3_SFCC_Newsletter_UAT</t>
+  </si>
+  <si>
+    <t>UC4_SFCC_Newsletter_UAT</t>
+  </si>
+  <si>
+    <t>UC5_SFCC_Newsletter_UAT</t>
+  </si>
+  <si>
+    <t>UC6_SFCC_Newsletter_UAT</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -248,27 +251,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -682,16 +665,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -700,140 +683,140 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
+++ b/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/Newsletter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31A839D-22CB-7245-AC83-CC7E5AA96FB7}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C91685-D547-7F46-83BD-222144BF2588}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -71,24 +71,6 @@
     <t>BNL</t>
   </si>
   <si>
-    <t>UC1_UAT@gg.com</t>
-  </si>
-  <si>
-    <t>UC2_UAT@gg.com</t>
-  </si>
-  <si>
-    <t>UC3_UAT@gg.com</t>
-  </si>
-  <si>
-    <t>UC4_UAT@gg.com</t>
-  </si>
-  <si>
-    <t>UC5_UAT@gg.com</t>
-  </si>
-  <si>
-    <t>UC6_UAT@gg.com</t>
-  </si>
-  <si>
     <t>${regions}</t>
   </si>
   <si>
@@ -111,16 +93,13 @@
   </si>
   <si>
     <t>UC6_SFCC_Newsletter_UAT</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,13 +117,6 @@
       <color theme="1"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -219,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,20 +203,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +631,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -678,46 +644,46 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -725,15 +691,15 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -742,49 +708,49 @@
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -801,14 +767,6 @@
       <formula>"YES"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
+++ b/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/Newsletter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C91685-D547-7F46-83BD-222144BF2588}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43CE44F4-8C93-4610-939E-74E6FEE29379}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -77,29 +77,50 @@
     <t>auto</t>
   </si>
   <si>
-    <t>UC1__SFCC_Newsletter_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Newsletter_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Newsletter_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Newsletter_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Newsletter_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Newsletter_UAT</t>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>UC1_SFCC_Newsletter_FRA_UAT</t>
+  </si>
+  <si>
+    <t>UC2_SFCC_Newsletter_USA_UAT</t>
+  </si>
+  <si>
+    <t>UC3_SFCC_Newsletter_ITA_UAT</t>
+  </si>
+  <si>
+    <t>UC4_SFCC_Newsletter_GBR_UAT</t>
+  </si>
+  <si>
+    <t>UC5_SFCC_Newsletter_CHE_UAT</t>
+  </si>
+  <si>
+    <t>UC6_SFCC_Newsletter_BEL_UAT</t>
+  </si>
+  <si>
+    <t>UC7_SFCC_Newsletter_LUX_UAT</t>
+  </si>
+  <si>
+    <t>UC8_SFCC_Newsletter_NLD_UAT</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>@{checkSystems}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -213,31 +234,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -628,23 +632,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="23.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -660,10 +665,13 @@
       <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -675,10 +683,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -690,10 +701,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -705,10 +719,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -720,10 +737,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -735,10 +755,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -750,23 +773,66 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
+++ b/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/Newsletter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43CE44F4-8C93-4610-939E-74E6FEE29379}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE6BCFE0-9B42-4ACB-876A-D7FE1C835552}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -62,9 +62,6 @@
     <t>ITA</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -114,6 +111,24 @@
   </si>
   <si>
     <t>@{checkSystems}</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>***Description***</t>
+  </si>
+  <si>
+    <t>URL HS</t>
+  </si>
+  <si>
+    <t>404 après validation newsletter</t>
+  </si>
+  <si>
+    <t>Impossible de choisir la région</t>
   </si>
 </sst>
 </file>
@@ -632,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="17.399999999999999"/>
@@ -646,10 +661,11 @@
     <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="1"/>
+    <col min="7" max="7" width="35.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="23.4">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="23.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -663,161 +679,178 @@
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="21">
+    <row r="3" spans="1:7" ht="21">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="21">
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="21">
+    <row r="5" spans="1:7" ht="21">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21">
+    <row r="6" spans="1:7" ht="21">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21">
+    <row r="7" spans="1:7" ht="21">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21">
+    <row r="8" spans="1:7" ht="21">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="21">
+    <row r="9" spans="1:7" ht="21">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B9">

--- a/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
+++ b/Jeux de donnees/SFCC/Newsletter/jdd-Newsletter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/Newsletter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE6BCFE0-9B42-4ACB-876A-D7FE1C835552}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{B30C1630-5039-0A47-AE08-908894A93F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F12E621C-07C2-46D3-916F-326F725BE6EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -65,12 +65,6 @@
     <t>CHE</t>
   </si>
   <si>
-    <t>BNL</t>
-  </si>
-  <si>
-    <t>${regions}</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
@@ -128,7 +122,7 @@
     <t>404 après validation newsletter</t>
   </si>
   <si>
-    <t>Impossible de choisir la région</t>
+    <t>Parfois, impossible de choisir la région</t>
   </si>
 </sst>
 </file>
@@ -227,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -246,9 +240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B2:B6"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="17.399999999999999"/>
@@ -659,13 +650,12 @@
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="1"/>
+    <col min="5" max="5" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="23.4">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="23.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -679,178 +669,161 @@
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21">
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="21">
+    <row r="3" spans="1:6" ht="21">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="21">
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="21">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="21">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21">
+    <row r="6" spans="1:6" ht="21">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21">
+    <row r="7" spans="1:6" ht="21">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21">
+    <row r="8" spans="1:6" ht="21">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="21">
+    <row r="9" spans="1:6" ht="21">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B9">
